--- a/07-07 Approximate Integration/approximate_integration_errors.xlsx
+++ b/07-07 Approximate Integration/approximate_integration_errors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t xml:space="preserve">Exact value:</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Error Ratios</t>
+  </si>
+  <si>
     <t xml:space="preserve">n=20</t>
   </si>
   <si>
@@ -93,11 +96,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,6 +121,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -180,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,11 +199,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,7 +287,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -325,6 +343,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -425,6 +444,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -525,6 +545,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -625,6 +646,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -725,6 +747,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -779,11 +802,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42649740"/>
-        <c:axId val="13094015"/>
+        <c:axId val="25123504"/>
+        <c:axId val="55441348"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42649740"/>
+        <c:axId val="25123504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +840,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -839,12 +862,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13094015"/>
+        <c:crossAx val="55441348"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13094015"/>
+        <c:axId val="55441348"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +910,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -909,9 +932,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42649740"/>
+        <c:crossAx val="25123504"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -957,7 +980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1013,6 +1036,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1113,6 +1137,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1213,6 +1238,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1267,11 +1293,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="78777775"/>
-        <c:axId val="1244072"/>
+        <c:axId val="35026071"/>
+        <c:axId val="48250822"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78777775"/>
+        <c:axId val="35026071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1331,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,12 +1353,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244072"/>
+        <c:crossAx val="48250822"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1244072"/>
+        <c:axId val="48250822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1401,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1397,9 +1423,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78777775"/>
+        <c:crossAx val="35026071"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1456,9 +1482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1466,8 +1492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17407440" y="122400"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="17421840" y="122400"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1486,9 +1512,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
+      <xdr:colOff>707040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1496,8 +1522,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17439840" y="3564360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="17454240" y="3564360"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1518,16 +1544,16 @@
   <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,9 +1866,18 @@
         <v>53.5981518936372</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1850,6 +1885,27 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="I17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1873,6 +1929,10 @@
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1901,6 +1961,18 @@
         <f aca="false">IF(E19=1,4*B19,0)</f>
         <v>0</v>
       </c>
+      <c r="I19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">4/I19</f>
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1931,6 +2003,18 @@
         <f aca="false">IF(E20=1,4*B20,0)</f>
         <v>4.88561103264068</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">4/I20</f>
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2504,7 +2588,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3766,7 +3850,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6227,10 +6311,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="K9:O9"/>
+    <mergeCell ref="K16:O16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A85:G85"/>
